--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -103,9 +103,6 @@
     <t>1CX45</t>
   </si>
   <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
     <t>Như vậy:</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Hình thức thanh toán, thanh toán trước 200 triệu còn 100 triệu còn lại công nợ chia thành 2 kỳ, 3 tháng đầu 50tr 3 tháng sau trả nốt 50tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -222,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -436,6 +436,43 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -444,7 +481,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,6 +546,51 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,50 +645,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -890,19 +936,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -940,57 +986,57 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="66" t="s">
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="64"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
@@ -1014,22 +1060,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="52">
+      <c r="A7" s="47">
         <v>641</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="48">
         <v>44055</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="44"/>
       <c r="G7" s="19" t="s">
         <v>26</v>
       </c>
@@ -1045,12 +1091,12 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="57"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="21" t="s">
         <v>20</v>
       </c>
@@ -1061,17 +1107,17 @@
         <v>455000</v>
       </c>
       <c r="J8" s="22">
-        <f t="shared" ref="J8:J22" si="0">H8*I8</f>
+        <f t="shared" ref="J8:J28" si="0">H8*I8</f>
         <v>16380000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="57"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="21" t="s">
         <v>14</v>
       </c>
@@ -1087,12 +1133,12 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="21" t="s">
         <v>15</v>
       </c>
@@ -1108,12 +1154,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="57"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="21" t="s">
         <v>13</v>
       </c>
@@ -1129,12 +1175,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="57"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="21" t="s">
         <v>18</v>
       </c>
@@ -1150,12 +1196,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="57"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="21" t="s">
         <v>19</v>
       </c>
@@ -1171,12 +1217,12 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="57"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="21" t="s">
         <v>17</v>
       </c>
@@ -1192,12 +1238,12 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="57"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="21" t="s">
         <v>16</v>
       </c>
@@ -1213,22 +1259,22 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53">
+      <c r="A16" s="36">
         <v>645</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="34">
         <v>44056</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="57"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="21" t="s">
         <v>20</v>
       </c>
@@ -1244,12 +1290,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="57"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="21" t="s">
         <v>14</v>
       </c>
@@ -1265,12 +1311,12 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="57"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="21" t="s">
         <v>15</v>
       </c>
@@ -1286,12 +1332,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="57"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="21" t="s">
         <v>18</v>
       </c>
@@ -1307,12 +1353,12 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="57"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="21" t="s">
         <v>19</v>
       </c>
@@ -1328,12 +1374,12 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="57"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1349,12 +1395,12 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="23" t="s">
         <v>16</v>
       </c>
@@ -1369,114 +1415,266 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="47">
+        <v>650</v>
+      </c>
+      <c r="B23" s="48">
+        <v>44057</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="67"/>
+      <c r="G23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19">
+        <v>24</v>
+      </c>
+      <c r="I23" s="20">
+        <v>455000</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="0"/>
+        <v>10920000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="21">
+        <v>24</v>
+      </c>
+      <c r="I24" s="22">
+        <v>465000</v>
+      </c>
+      <c r="J24" s="22">
+        <f t="shared" si="0"/>
+        <v>11160000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="21">
+        <v>24</v>
+      </c>
+      <c r="I25" s="22">
+        <v>475000</v>
+      </c>
+      <c r="J25" s="22">
+        <f t="shared" si="0"/>
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="21">
+        <v>72</v>
+      </c>
+      <c r="I26" s="22">
+        <v>485000</v>
+      </c>
+      <c r="J26" s="22">
+        <f t="shared" si="0"/>
+        <v>34920000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="21">
+        <v>36</v>
+      </c>
+      <c r="I27" s="22">
+        <v>455000</v>
+      </c>
+      <c r="J27" s="22">
+        <f t="shared" si="0"/>
+        <v>16380000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23">
+        <v>36</v>
+      </c>
+      <c r="I28" s="24">
+        <v>455000</v>
+      </c>
+      <c r="J28" s="24">
+        <f t="shared" si="0"/>
+        <v>16380000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="26">
+        <f>SUM(J7:J28)</f>
+        <v>290820000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="26">
-        <f>SUM(J7:J22)</f>
-        <v>189660000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="28">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="28">
         <f>300000000+300000000*38%</f>
         <v>414000000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="29">
+        <f>J29</f>
+        <v>290820000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="29">
-        <f>J23</f>
-        <v>189660000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="30">
+        <f>J32-J33</f>
+        <v>123180000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="30">
-        <f>J26-J27</f>
-        <v>224340000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="64" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="49" t="s">
+      <c r="C37" s="65"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="31">
+        <v>300000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="31">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="32">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="32">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="33">
-        <f>E31-E32</f>
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="33">
+        <f>E37-E38</f>
         <v>295000000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="32">
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="F23:F28"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A3:J3"/>
@@ -1493,16 +1691,6 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="D7:D15"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B31:D31"/>
   </mergeCells>
   <pageMargins left="1.02" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1514,34 +1702,34 @@
   <dimension ref="D7:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập hàng" sheetId="1" r:id="rId1"/>
     <sheet name="Ghi chú" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -34,21 +34,9 @@
     <t>Người bán</t>
   </si>
   <si>
-    <t>Thông tin khách hàng</t>
-  </si>
-  <si>
-    <t>Thông tin về sản phẩm</t>
-  </si>
-  <si>
-    <t>Tên khách hàng</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
     <t>Mã sản phẩm</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
     <t>Cần phải thanh toán</t>
   </si>
   <si>
-    <t>Đã TT, Đặt cọc (A.sơn ừng)12/8</t>
-  </si>
-  <si>
     <t>Còn nợ công ty</t>
   </si>
   <si>
@@ -143,18 +128,93 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Khai trương</t>
+  </si>
+  <si>
+    <t>Tên mặt hàng</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Sữa (New) One-Care (Xương khớp 900g)</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Sữa (New) One-Kid Phát triển chiều cao trí não 900g)</t>
+  </si>
+  <si>
+    <t>Sữa (New) One-Plus (900g)</t>
+  </si>
+  <si>
+    <t>Sữa Enter Weight 900g (&gt;1 tuổi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sữa Enter Gold 900g </t>
+  </si>
+  <si>
+    <t>Sữa Onelac - IQ kid gold (900g)</t>
+  </si>
+  <si>
+    <t>Sữa SP grow IQ 900g</t>
+  </si>
+  <si>
+    <t>Sữa SP Sure gold 900g</t>
+  </si>
+  <si>
+    <t>Sữa SP Nutriplus 900g</t>
+  </si>
+  <si>
+    <t>Sữa enter Grow IQ 900g (&gt;1 tuổi)</t>
+  </si>
+  <si>
+    <t>Sữa insurell Tim mạch 900g</t>
+  </si>
+  <si>
+    <t>Sữa Onelac - Baby pedia gold (900g)</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Sữa ngoài</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Thông tin KH</t>
+  </si>
+  <si>
+    <t>Thông tin SP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,8 +267,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -445,20 +518,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="hair">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -472,16 +532,18 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -496,10 +558,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -512,7 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -525,38 +587,64 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,87 +661,92 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -716,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -751,7 +844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -928,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -936,32 +1029,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="7" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="7" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="4"/>
-    <col min="13" max="13" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="12" max="12" width="54.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +1069,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -985,715 +1081,1115 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="79"/>
+      <c r="F5" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>641</v>
+      </c>
+      <c r="B7" s="35">
+        <v>44055</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="F7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-    </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="16" t="s">
+      <c r="G7" s="19">
+        <v>48</v>
+      </c>
+      <c r="H7" s="20">
+        <v>225000</v>
+      </c>
+      <c r="I7" s="20">
+        <f>G7*H7</f>
+        <v>10800000</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="21">
+        <v>36</v>
+      </c>
+      <c r="H8" s="22">
+        <v>455000</v>
+      </c>
+      <c r="I8" s="22">
+        <f t="shared" ref="I8:I28" si="0">G8*H8</f>
+        <v>16380000</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="47">
-        <v>641</v>
-      </c>
-      <c r="B7" s="48">
-        <v>44055</v>
-      </c>
-      <c r="C7" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="19">
-        <v>48</v>
-      </c>
-      <c r="I7" s="20">
-        <v>225000</v>
-      </c>
-      <c r="J7" s="20">
-        <f>H7*I7</f>
-        <v>10800000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G9" s="21">
         <v>36</v>
       </c>
-      <c r="I8" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J8" s="22">
-        <f t="shared" ref="J8:J28" si="0">H8*I8</f>
-        <v>16380000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="21">
-        <v>36</v>
+      <c r="H9" s="22">
+        <v>465000</v>
       </c>
       <c r="I9" s="22">
-        <v>465000</v>
-      </c>
-      <c r="J9" s="22">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="K9" s="58">
+        <v>1</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="59">
+        <v>12</v>
+      </c>
+      <c r="O9" s="60">
+        <v>180000</v>
+      </c>
+      <c r="P9" s="60">
+        <f>N9*O9</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="21">
         <v>24</v>
       </c>
+      <c r="H10" s="22">
+        <v>475000</v>
+      </c>
       <c r="I10" s="22">
-        <v>475000</v>
-      </c>
-      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="K10" s="21">
+        <v>2</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="56">
         <v>12</v>
       </c>
+      <c r="O10" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P10" s="57">
+        <f t="shared" ref="P10:P22" si="1">N10*O10</f>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="21">
+        <v>12</v>
+      </c>
+      <c r="H11" s="22">
+        <v>485000</v>
+      </c>
       <c r="I11" s="22">
-        <v>485000</v>
-      </c>
-      <c r="J11" s="22">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="K11" s="21">
+        <v>3</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="56">
         <v>12</v>
       </c>
+      <c r="O11" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P11" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="21">
+        <v>12</v>
+      </c>
+      <c r="H12" s="22">
+        <v>485000</v>
+      </c>
       <c r="I12" s="22">
-        <v>485000</v>
-      </c>
-      <c r="J12" s="22">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="K12" s="21">
+        <v>4</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="56">
+        <v>12</v>
+      </c>
+      <c r="O12" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P12" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="21">
         <v>48</v>
       </c>
+      <c r="H13" s="22">
+        <v>550000</v>
+      </c>
       <c r="I13" s="22">
-        <v>550000</v>
-      </c>
-      <c r="J13" s="22">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="K13" s="21">
+        <v>5</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="56">
         <v>12</v>
       </c>
+      <c r="O13" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="21">
+        <v>12</v>
+      </c>
+      <c r="H14" s="22">
+        <v>455000</v>
+      </c>
       <c r="I14" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J14" s="22">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="K14" s="21">
+        <v>6</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="56">
+        <v>12</v>
+      </c>
+      <c r="O14" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P14" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="21">
         <v>24</v>
       </c>
+      <c r="H15" s="22">
+        <v>455000</v>
+      </c>
       <c r="I15" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J15" s="22">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="K15" s="21">
+        <v>7</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15" s="56">
+        <v>12</v>
+      </c>
+      <c r="O15" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P15" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
         <v>645</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="36">
         <v>44056</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="21" t="s">
+      <c r="C16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="21">
+      <c r="E16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="21">
         <v>36</v>
       </c>
+      <c r="H16" s="22">
+        <v>455000</v>
+      </c>
       <c r="I16" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J16" s="22">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="K16" s="21">
+        <v>8</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="56">
+        <v>12</v>
+      </c>
+      <c r="O16" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P16" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="21">
         <v>36</v>
       </c>
+      <c r="H17" s="22">
+        <v>465000</v>
+      </c>
       <c r="I17" s="22">
-        <v>465000</v>
-      </c>
-      <c r="J17" s="22">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="K17" s="21">
+        <v>9</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17" s="56">
+        <v>12</v>
+      </c>
+      <c r="O17" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P17" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="21">
         <v>24</v>
       </c>
+      <c r="H18" s="22">
+        <v>475000</v>
+      </c>
       <c r="I18" s="22">
-        <v>475000</v>
-      </c>
-      <c r="J18" s="22">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="K18" s="21">
+        <v>10</v>
+      </c>
+      <c r="L18" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="56">
         <v>12</v>
       </c>
+      <c r="O18" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P18" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="21">
+        <v>12</v>
+      </c>
+      <c r="H19" s="22">
+        <v>485000</v>
+      </c>
       <c r="I19" s="22">
-        <v>485000</v>
-      </c>
-      <c r="J19" s="22">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="K19" s="21">
+        <v>11</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="56">
+        <v>12</v>
+      </c>
+      <c r="O19" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P19" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="21">
         <v>24</v>
       </c>
+      <c r="H20" s="22">
+        <v>550000</v>
+      </c>
       <c r="I20" s="22">
-        <v>550000</v>
-      </c>
-      <c r="J20" s="22">
         <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="K20" s="21">
         <v>12</v>
       </c>
+      <c r="L20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="56">
+        <v>12</v>
+      </c>
+      <c r="O20" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P20" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="21">
+        <v>12</v>
+      </c>
+      <c r="H21" s="22">
+        <v>455000</v>
+      </c>
       <c r="I21" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J21" s="22">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="23">
+      <c r="K21" s="21">
+        <v>13</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="56">
+        <v>12</v>
+      </c>
+      <c r="O21" s="57">
+        <v>180000</v>
+      </c>
+      <c r="P21" s="57">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="23">
         <v>24</v>
       </c>
+      <c r="H22" s="24">
+        <v>455000</v>
+      </c>
       <c r="I22" s="24">
-        <v>455000</v>
-      </c>
-      <c r="J22" s="24">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="47">
+      <c r="K22" s="61">
+        <v>14</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="62">
+        <v>12</v>
+      </c>
+      <c r="O22" s="63">
+        <v>180000</v>
+      </c>
+      <c r="P22" s="63">
+        <f t="shared" si="1"/>
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
         <v>650</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="35">
         <v>44057</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="19">
         <v>24</v>
       </c>
-      <c r="E23" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="67"/>
-      <c r="G23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19">
-        <v>24</v>
+      <c r="H23" s="20">
+        <v>455000</v>
       </c>
       <c r="I23" s="20">
-        <v>455000</v>
-      </c>
-      <c r="J23" s="20">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="K23" s="64"/>
+      <c r="L23" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="86"/>
+      <c r="N23" s="66">
+        <f>SUM(N9:N22)</f>
+        <v>168</v>
+      </c>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67">
+        <f>SUM(P9:P22)</f>
+        <v>30240000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="21">
         <v>24</v>
       </c>
+      <c r="H24" s="22">
+        <v>465000</v>
+      </c>
       <c r="I24" s="22">
-        <v>465000</v>
-      </c>
-      <c r="J24" s="22">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="21">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="21">
         <v>24</v>
       </c>
+      <c r="H25" s="22">
+        <v>475000</v>
+      </c>
       <c r="I25" s="22">
-        <v>475000</v>
-      </c>
-      <c r="J25" s="22">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="21">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="21">
         <v>72</v>
       </c>
+      <c r="H26" s="22">
+        <v>485000</v>
+      </c>
       <c r="I26" s="22">
-        <v>485000</v>
-      </c>
-      <c r="J26" s="22">
         <f t="shared" si="0"/>
         <v>34920000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="21">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="21">
         <v>36</v>
       </c>
+      <c r="H27" s="22">
+        <v>455000</v>
+      </c>
       <c r="I27" s="22">
-        <v>455000</v>
-      </c>
-      <c r="J27" s="22">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="23">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="23">
         <v>36</v>
       </c>
+      <c r="H28" s="24">
+        <v>455000</v>
+      </c>
       <c r="I28" s="24">
-        <v>455000</v>
-      </c>
-      <c r="J28" s="24">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="26">
-        <f>SUM(J7:J28)</f>
+    <row r="29" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="26">
+        <f>SUM(I7:I28)</f>
         <v>290820000</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="28">
+    <row r="30" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="88"/>
+    </row>
+    <row r="32" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="88"/>
+    </row>
+    <row r="34" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="88"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="28">
         <f>300000000+300000000*38%</f>
         <v>414000000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="52" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="29">
+        <f>I29</f>
+        <v>290820000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="55">
+        <f>J37-J38</f>
+        <v>123180000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="71">
+        <v>300000000</v>
+      </c>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="49">
+        <v>44055</v>
+      </c>
+      <c r="D43" s="68">
+        <v>5000000</v>
+      </c>
+      <c r="E43" s="68"/>
+      <c r="F43" s="75">
+        <f>D43+D44+D45</f>
+        <v>185000000</v>
+      </c>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="72"/>
+      <c r="C44" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="69">
+        <v>100000000</v>
+      </c>
+      <c r="E44" s="69"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="72"/>
+      <c r="C45" s="51">
+        <v>44064</v>
+      </c>
+      <c r="D45" s="70">
+        <v>80000000</v>
+      </c>
+      <c r="E45" s="70"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="29">
-        <f>J29</f>
-        <v>290820000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="30">
-        <f>J32-J33</f>
-        <v>123180000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="31">
-        <v>300000000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="32">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="33">
-        <f>E37-E38</f>
-        <v>295000000</v>
-      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="74">
+        <f>F42-F43</f>
+        <v>115000000</v>
+      </c>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="F23:F28"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="A16:A22"/>
+  <mergeCells count="34">
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H45"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="F7:F15"/>
-    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A16:A22"/>
     <mergeCell ref="E16:E22"/>
     <mergeCell ref="D16:D22"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="D7:D15"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B43:B45"/>
   </mergeCells>
-  <pageMargins left="1.02" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.71" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1701,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1709,27 +2205,27 @@
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -10,7 +10,7 @@
     <sheet name="Nhập hàng" sheetId="1" r:id="rId1"/>
     <sheet name="Ghi chú" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Còn nợ công ty</t>
   </si>
   <si>
-    <t>Số hàng đại lý nhập hàng theo hợp đồng  300.000.000+300.000.000*38%</t>
-  </si>
-  <si>
     <t>Đại lý kí HĐ 300 triệu</t>
   </si>
   <si>
@@ -203,16 +200,19 @@
   </si>
   <si>
     <t>Thông tin SP</t>
+  </si>
+  <si>
+    <t>Số Hàng Nanomilk nhập (300.000.000-30.240.000)+(300.000.000-30.240.000)*38%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -540,7 +540,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
@@ -558,10 +558,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -574,7 +574,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,80 +587,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -670,69 +619,38 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,11 +660,93 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1021,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1029,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,54 +1082,54 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="46"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="31"/>
       <c r="K5" s="4"/>
       <c r="L5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1137,11 +1137,11 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>4</v>
@@ -1166,19 +1166,19 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
+      <c r="A7" s="73">
         <v>641</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="75">
         <v>44055</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -1202,11 +1202,11 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="21" t="s">
         <v>16</v>
       </c>
@@ -1221,30 +1221,30 @@
         <v>16380000</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="N8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="O8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="P8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1258,32 +1258,32 @@
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="K9" s="58">
+      <c r="K9" s="38">
         <v>1</v>
       </c>
-      <c r="L9" s="59" t="s">
+      <c r="L9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="59">
+      <c r="N9" s="39">
         <v>12</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="40">
         <v>180000</v>
       </c>
-      <c r="P9" s="60">
+      <c r="P9" s="40">
         <f>N9*O9</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1300,29 +1300,29 @@
       <c r="K10" s="21">
         <v>2</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="56" t="s">
+      <c r="L10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="56">
+      <c r="M10" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="36">
         <v>12</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="37">
         <v>180000</v>
       </c>
-      <c r="P10" s="57">
+      <c r="P10" s="37">
         <f t="shared" ref="P10:P22" si="1">N10*O10</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1339,29 +1339,29 @@
       <c r="K11" s="21">
         <v>3</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="56">
+      <c r="L11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="36">
         <v>12</v>
       </c>
-      <c r="O11" s="57">
+      <c r="O11" s="37">
         <v>180000</v>
       </c>
-      <c r="P11" s="57">
+      <c r="P11" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1379,28 +1379,28 @@
         <v>4</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="56">
+        <v>45</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="36">
         <v>12</v>
       </c>
-      <c r="O12" s="57">
+      <c r="O12" s="37">
         <v>180000</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="21" t="s">
         <v>15</v>
       </c>
@@ -1418,28 +1418,28 @@
         <v>5</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="56">
+        <v>46</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="36">
         <v>12</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="37">
         <v>180000</v>
       </c>
-      <c r="P13" s="57">
+      <c r="P13" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
@@ -1456,29 +1456,29 @@
       <c r="K14" s="21">
         <v>6</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="L14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N14" s="56">
+      <c r="N14" s="36">
         <v>12</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="37">
         <v>180000</v>
       </c>
-      <c r="P14" s="57">
+      <c r="P14" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="21" t="s">
         <v>12</v>
       </c>
@@ -1496,36 +1496,36 @@
         <v>7</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N15" s="56">
+        <v>47</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="36">
         <v>12</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="37">
         <v>180000</v>
       </c>
-      <c r="P15" s="57">
+      <c r="P15" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="74">
         <v>645</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="76">
         <v>44056</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="74" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -1545,28 +1545,28 @@
         <v>8</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="56">
+        <v>48</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="36">
         <v>12</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="37">
         <v>180000</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="21" t="s">
         <v>10</v>
       </c>
@@ -1584,28 +1584,28 @@
         <v>9</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N17" s="56">
+        <v>49</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="36">
         <v>12</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="37">
         <v>180000</v>
       </c>
-      <c r="P17" s="57">
+      <c r="P17" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="21" t="s">
         <v>11</v>
       </c>
@@ -1622,29 +1622,29 @@
       <c r="K18" s="21">
         <v>10</v>
       </c>
-      <c r="L18" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="56" t="s">
+      <c r="L18" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="56">
+      <c r="M18" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="36">
         <v>12</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="37">
         <v>180000</v>
       </c>
-      <c r="P18" s="57">
+      <c r="P18" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="21" t="s">
         <v>14</v>
       </c>
@@ -1662,28 +1662,28 @@
         <v>11</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="56">
+        <v>50</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N19" s="36">
         <v>12</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="37">
         <v>180000</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="21" t="s">
         <v>15</v>
       </c>
@@ -1701,28 +1701,28 @@
         <v>12</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" s="56">
+        <v>51</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" s="36">
         <v>12</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="37">
         <v>180000</v>
       </c>
-      <c r="P20" s="57">
+      <c r="P20" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="21" t="s">
         <v>13</v>
       </c>
@@ -1740,28 +1740,28 @@
         <v>13</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N21" s="56">
+        <v>52</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="36">
         <v>12</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="37">
         <v>180000</v>
       </c>
-      <c r="P21" s="57">
+      <c r="P21" s="37">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="23" t="s">
         <v>12</v>
       </c>
@@ -1775,40 +1775,40 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K22" s="61">
+      <c r="K22" s="41">
         <v>14</v>
       </c>
-      <c r="L22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="N22" s="62">
+      <c r="L22" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" s="42">
         <v>12</v>
       </c>
-      <c r="O22" s="63">
+      <c r="O22" s="43">
         <v>180000</v>
       </c>
-      <c r="P22" s="63">
+      <c r="P22" s="43">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="73">
         <v>650</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="75">
         <v>44057</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="73" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -1824,27 +1824,27 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K23" s="64"/>
-      <c r="L23" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="66">
+      <c r="K23" s="44"/>
+      <c r="L23" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="50"/>
+      <c r="N23" s="45">
         <f>SUM(N9:N22)</f>
         <v>168</v>
       </c>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67">
+      <c r="O23" s="46"/>
+      <c r="P23" s="46">
         <f>SUM(P9:P22)</f>
         <v>30240000</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="21" t="s">
         <v>10</v>
       </c>
@@ -1860,11 +1860,11 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="21" t="s">
         <v>11</v>
       </c>
@@ -1880,11 +1880,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="21" t="s">
         <v>9</v>
       </c>
@@ -1900,11 +1900,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="23" t="s">
         <v>12</v>
       </c>
@@ -1940,86 +1940,86 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="82"/>
+      <c r="A29" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
       <c r="I29" s="26">
         <f>SUM(I7:I28)</f>
         <v>290820000</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="88"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="88"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
     </row>
     <row r="32" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="88"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
     </row>
     <row r="33" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
     </row>
     <row r="34" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="88"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
     </row>
     <row r="35" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="52"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
@@ -2027,152 +2027,152 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="43"/>
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
+      <c r="B37" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="82"/>
       <c r="J37" s="28">
-        <f>300000000+300000000*38%</f>
-        <v>414000000</v>
+        <f>P23</f>
+        <v>30240000</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="28">
+        <f>(300000000-P23)+(300000000-P23)*38%</f>
+        <v>372268800</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="29">
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="29">
         <f>I29</f>
         <v>290820000</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="52" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="55">
-        <f>J37-J38</f>
-        <v>123180000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="35">
+        <f>J38-J39</f>
+        <v>81448800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="65" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="71">
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64">
         <v>300000000</v>
       </c>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="72" t="s">
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C44" s="32">
         <v>44055</v>
       </c>
-      <c r="D43" s="68">
+      <c r="D44" s="60">
         <v>5000000</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="75">
-        <f>D43+D44+D45</f>
+      <c r="E44" s="60"/>
+      <c r="F44" s="65">
+        <f>D44+D45+D46</f>
         <v>185000000</v>
       </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="72"/>
-      <c r="C44" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="69">
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+    </row>
+    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="88"/>
+      <c r="C45" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="61">
         <v>100000000</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="72"/>
-      <c r="C45" s="51">
+      <c r="E45" s="61"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="88"/>
+      <c r="C46" s="34">
         <v>44064</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D46" s="62">
         <v>80000000</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="73" t="s">
+      <c r="E46" s="62"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="74">
-        <f>F42-F43</f>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="53">
+        <f>F43-F44</f>
         <v>115000000</v>
       </c>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H45"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
+  <mergeCells count="35">
     <mergeCell ref="A7:A15"/>
+    <mergeCell ref="B39:I39"/>
     <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B37:I37"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="A16:A22"/>
@@ -2181,12 +2181,30 @@
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="E7:E15"/>
     <mergeCell ref="D7:D15"/>
-    <mergeCell ref="B39:I39"/>
     <mergeCell ref="E23:E28"/>
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H46"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.71" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2205,27 +2223,27 @@
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -202,7 +202,13 @@
     <t>Thông tin SP</t>
   </si>
   <si>
-    <t>Số Hàng Nanomilk nhập (300.000.000-30.240.000)+(300.000.000-30.240.000)*38%</t>
+    <t>Số Hàng Nanomilk nhập 300.000.000+300.000.000*38%</t>
+  </si>
+  <si>
+    <t>Hàng Nanomilk</t>
+  </si>
+  <si>
+    <t>Hàng sữa khác</t>
   </si>
 </sst>
 </file>
@@ -610,15 +616,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -639,6 +636,57 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,81 +708,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -745,7 +724,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -809,7 +809,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -844,7 +844,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1029,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:P23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1082,50 +1082,50 @@
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="31"/>
       <c r="K5" s="4"/>
       <c r="L5" s="27" t="s">
@@ -1137,9 +1137,9 @@
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="71"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="14" t="s">
         <v>57</v>
       </c>
@@ -1166,19 +1166,19 @@
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="50">
         <v>641</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="61">
         <v>44055</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -1202,11 +1202,11 @@
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="21" t="s">
         <v>16</v>
       </c>
@@ -1240,11 +1240,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1258,32 +1258,32 @@
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <v>1</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="36">
         <v>12</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="37">
         <v>180000</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="37">
         <f>N9*O9</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1300,29 +1300,29 @@
       <c r="K10" s="21">
         <v>2</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="M10" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="33">
         <v>12</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="34">
         <v>180000</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="34">
         <f t="shared" ref="P10:P22" si="1">N10*O10</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="21" t="s">
         <v>9</v>
       </c>
@@ -1339,29 +1339,29 @@
       <c r="K11" s="21">
         <v>3</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="36" t="s">
+      <c r="M11" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="33">
         <v>12</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="34">
         <v>180000</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="21" t="s">
         <v>14</v>
       </c>
@@ -1381,26 +1381,26 @@
       <c r="L12" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="36" t="s">
+      <c r="M12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="33">
         <v>12</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="34">
         <v>180000</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="21" t="s">
         <v>15</v>
       </c>
@@ -1420,26 +1420,26 @@
       <c r="L13" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="36" t="s">
+      <c r="M13" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="33">
         <v>12</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="34">
         <v>180000</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
@@ -1456,29 +1456,29 @@
       <c r="K14" s="21">
         <v>6</v>
       </c>
-      <c r="L14" s="36" t="s">
+      <c r="L14" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="33">
         <v>12</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="34">
         <v>180000</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="21" t="s">
         <v>12</v>
       </c>
@@ -1498,34 +1498,34 @@
       <c r="L15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="36" t="s">
+      <c r="M15" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="33">
         <v>12</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="34">
         <v>180000</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="74">
+      <c r="A16" s="51">
         <v>645</v>
       </c>
-      <c r="B16" s="76">
+      <c r="B16" s="59">
         <v>44056</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="51" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="21" t="s">
@@ -1547,26 +1547,26 @@
       <c r="L16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="33">
         <v>12</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="34">
         <v>180000</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
       <c r="F17" s="21" t="s">
         <v>10</v>
       </c>
@@ -1586,26 +1586,26 @@
       <c r="L17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="36" t="s">
+      <c r="M17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="33">
         <v>12</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="34">
         <v>180000</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
       <c r="F18" s="21" t="s">
         <v>11</v>
       </c>
@@ -1622,29 +1622,29 @@
       <c r="K18" s="21">
         <v>10</v>
       </c>
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="36" t="s">
+      <c r="M18" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="33">
         <v>12</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="34">
         <v>180000</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="21" t="s">
         <v>14</v>
       </c>
@@ -1664,26 +1664,26 @@
       <c r="L19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="36" t="s">
+      <c r="M19" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="33">
         <v>12</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="34">
         <v>180000</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
       <c r="F20" s="21" t="s">
         <v>15</v>
       </c>
@@ -1703,26 +1703,26 @@
       <c r="L20" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="33">
         <v>12</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="34">
         <v>180000</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="21" t="s">
         <v>13</v>
       </c>
@@ -1742,26 +1742,26 @@
       <c r="L21" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="36" t="s">
+      <c r="M21" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="33">
         <v>12</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="34">
         <v>180000</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="23" t="s">
         <v>12</v>
       </c>
@@ -1775,40 +1775,40 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="38">
         <v>14</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="39">
         <v>12</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="40">
         <v>180000</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="40">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="A23" s="50">
         <v>650</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="61">
         <v>44057</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="73" t="s">
+      <c r="D23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="73" t="s">
+      <c r="E23" s="50" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="19" t="s">
@@ -1824,27 +1824,27 @@
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="50" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="50"/>
-      <c r="N23" s="45">
+      <c r="M23" s="47"/>
+      <c r="N23" s="42">
         <f>SUM(N9:N22)</f>
         <v>168</v>
       </c>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46">
+      <c r="O23" s="43"/>
+      <c r="P23" s="43">
         <f>SUM(P9:P22)</f>
         <v>30240000</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="21" t="s">
         <v>10</v>
       </c>
@@ -1860,11 +1860,11 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="21" t="s">
         <v>11</v>
       </c>
@@ -1880,11 +1880,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="21" t="s">
         <v>9</v>
       </c>
@@ -1900,11 +1900,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
@@ -1920,11 +1920,11 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="23" t="s">
         <v>12</v>
       </c>
@@ -1940,86 +1940,86 @@
       </c>
     </row>
     <row r="29" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
       <c r="I29" s="26">
         <f>SUM(I7:I28)</f>
         <v>290820000</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="52"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
     </row>
     <row r="31" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="52"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="52"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
@@ -2029,67 +2029,53 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
-      <c r="B37" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="28">
-        <f>P23</f>
-        <v>30240000</v>
-      </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="28">
-        <f>(300000000-P23)+(300000000-P23)*38%</f>
-        <v>372268800</v>
+        <f>300000000+300000000*38%</f>
+        <v>414000000</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="77" t="s">
+      <c r="B39" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="79"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="29">
         <f>I29</f>
         <v>290820000</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="35">
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="32">
         <f>J38-J39</f>
-        <v>81448800</v>
+        <v>123180000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -2098,78 +2084,131 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64">
+      <c r="C43" s="85"/>
+      <c r="D43" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="75">
         <v>300000000</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="74"/>
+      <c r="F44" s="75">
+        <v>30240000</v>
+      </c>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+    </row>
+    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="32">
-        <v>44055</v>
-      </c>
-      <c r="D44" s="60">
-        <v>5000000</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="65">
-        <f>D44+D45+D46</f>
-        <v>185000000</v>
-      </c>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="88"/>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="61">
+      <c r="D45" s="87">
         <v>100000000</v>
       </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88">
+        <f>SUM(D45:E47)</f>
+        <v>200000000</v>
+      </c>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="88"/>
-      <c r="C46" s="34">
+      <c r="B46" s="86"/>
+      <c r="C46" s="79">
         <v>44064</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="87">
         <v>80000000</v>
       </c>
-      <c r="E46" s="62"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="86"/>
+      <c r="C47" s="79">
+        <v>44065</v>
+      </c>
+      <c r="D47" s="87">
+        <v>20000000</v>
+      </c>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="53">
-        <f>F43-F44</f>
-        <v>115000000</v>
-      </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="67">
+        <f>F43+F44-F45</f>
+        <v>130240000</v>
+      </c>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="83">
+        <f>P23</f>
+        <v>30240000</v>
+      </c>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:H47"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B38:I38"/>
@@ -2185,26 +2224,6 @@
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H46"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <pageMargins left="0.71" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -202,13 +202,13 @@
     <t>Thông tin SP</t>
   </si>
   <si>
-    <t>Số Hàng Nanomilk nhập 300.000.000+300.000.000*38%</t>
-  </si>
-  <si>
     <t>Hàng Nanomilk</t>
   </si>
   <si>
     <t>Hàng sữa khác</t>
+  </si>
+  <si>
+    <t>Số Hàng Nanomilk nhập (300.000.000-30.240.000)+(300.000.000-30.240.000)*38%</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,45 +237,38 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -544,12 +537,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -567,7 +559,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -583,7 +574,38 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -599,159 +621,125 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,35 +1017,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:H48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="54.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7" style="4" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="33" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,1148 +1054,1109 @@
       <c r="E1" s="3"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64"/>
-    </row>
-    <row r="5" spans="1:16" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="31"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="27" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="14" t="s">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+    </row>
+    <row r="6" spans="1:15" s="22" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="50">
+      <c r="J6" s="4"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>641</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="30">
         <v>44055</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="31">
         <v>48</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="32">
         <v>225000</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="32">
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="21" t="s">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="36">
         <v>36</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="37">
         <v>455000</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="37">
         <f t="shared" ref="I8:I28" si="0">G8*H8</f>
         <v>16380000</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="J8" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="K8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="L8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="M8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="N8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="O8" s="21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="21" t="s">
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="36">
         <v>36</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="37">
         <v>465000</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="37">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="K9" s="35">
+      <c r="J9" s="38">
         <v>1</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="K9" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="L9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="36">
+      <c r="M9" s="39">
         <v>12</v>
       </c>
-      <c r="O9" s="37">
+      <c r="N9" s="40">
         <v>180000</v>
       </c>
-      <c r="P9" s="37">
-        <f>N9*O9</f>
+      <c r="O9" s="40">
+        <f>M9*N9</f>
         <v>2160000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="21" t="s">
+    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="36">
         <v>24</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="37">
         <v>475000</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="37">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="K10" s="21">
+      <c r="J10" s="36">
         <v>2</v>
       </c>
-      <c r="L10" s="33" t="s">
+      <c r="K10" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="L10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="33">
+      <c r="M10" s="41">
         <v>12</v>
       </c>
-      <c r="O10" s="34">
+      <c r="N10" s="42">
         <v>180000</v>
       </c>
-      <c r="P10" s="34">
-        <f t="shared" ref="P10:P22" si="1">N10*O10</f>
+      <c r="O10" s="42">
+        <f t="shared" ref="O10:O22" si="1">M10*N10</f>
         <v>2160000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="21" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="36">
         <v>12</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="37">
         <v>485000</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="37">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="K11" s="21">
+      <c r="J11" s="36">
         <v>3</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="K11" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="33">
+      <c r="M11" s="41">
         <v>12</v>
       </c>
-      <c r="O11" s="34">
+      <c r="N11" s="42">
         <v>180000</v>
       </c>
-      <c r="P11" s="34">
+      <c r="O11" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="21" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="36">
         <v>12</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="37">
         <v>485000</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="37">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="K12" s="21">
+      <c r="J12" s="36">
         <v>4</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="K12" s="81" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="33" t="s">
+      <c r="L12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="33">
+      <c r="M12" s="41">
         <v>12</v>
       </c>
-      <c r="O12" s="34">
+      <c r="N12" s="42">
         <v>180000</v>
       </c>
-      <c r="P12" s="34">
+      <c r="O12" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="21" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="36">
         <v>48</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="37">
         <v>550000</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="37">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-      <c r="K13" s="21">
+      <c r="J13" s="36">
         <v>5</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="K13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="33" t="s">
+      <c r="L13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="33">
+      <c r="M13" s="41">
         <v>12</v>
       </c>
-      <c r="O13" s="34">
+      <c r="N13" s="42">
         <v>180000</v>
       </c>
-      <c r="P13" s="34">
+      <c r="O13" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="21" t="s">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="36">
         <v>12</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="37">
         <v>455000</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="37">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="K14" s="21">
+      <c r="J14" s="36">
         <v>6</v>
       </c>
-      <c r="L14" s="33" t="s">
+      <c r="K14" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="L14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N14" s="33">
+      <c r="M14" s="41">
         <v>12</v>
       </c>
-      <c r="O14" s="34">
+      <c r="N14" s="42">
         <v>180000</v>
       </c>
-      <c r="P14" s="34">
+      <c r="O14" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="21" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="36">
         <v>24</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="37">
         <v>455000</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="37">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K15" s="21">
+      <c r="J15" s="36">
         <v>7</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="K15" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="33" t="s">
+      <c r="L15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N15" s="33">
+      <c r="M15" s="41">
         <v>12</v>
       </c>
-      <c r="O15" s="34">
+      <c r="N15" s="42">
         <v>180000</v>
       </c>
-      <c r="P15" s="34">
+      <c r="O15" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="51">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
         <v>645</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="35">
         <v>44056</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="36">
         <v>36</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="37">
         <v>455000</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="37">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="K16" s="21">
+      <c r="J16" s="36">
         <v>8</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="K16" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="L16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="33">
+      <c r="M16" s="41">
         <v>12</v>
       </c>
-      <c r="O16" s="34">
+      <c r="N16" s="42">
         <v>180000</v>
       </c>
-      <c r="P16" s="34">
+      <c r="O16" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="21" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="36">
         <v>36</v>
       </c>
-      <c r="H17" s="22">
+      <c r="H17" s="37">
         <v>465000</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="37">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="K17" s="21">
+      <c r="J17" s="36">
         <v>9</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="K17" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="33" t="s">
+      <c r="L17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N17" s="33">
+      <c r="M17" s="41">
         <v>12</v>
       </c>
-      <c r="O17" s="34">
+      <c r="N17" s="42">
         <v>180000</v>
       </c>
-      <c r="P17" s="34">
+      <c r="O17" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="21" t="s">
+    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="36">
         <v>24</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="37">
         <v>475000</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="37">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="K18" s="21">
+      <c r="J18" s="36">
         <v>10</v>
       </c>
-      <c r="L18" s="33" t="s">
+      <c r="K18" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="33" t="s">
+      <c r="L18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N18" s="33">
+      <c r="M18" s="41">
         <v>12</v>
       </c>
-      <c r="O18" s="34">
+      <c r="N18" s="42">
         <v>180000</v>
       </c>
-      <c r="P18" s="34">
+      <c r="O18" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="21" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="36">
         <v>12</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="37">
         <v>485000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="37">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="K19" s="21">
+      <c r="J19" s="36">
         <v>11</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="K19" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="33" t="s">
+      <c r="L19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="33">
+      <c r="M19" s="41">
         <v>12</v>
       </c>
-      <c r="O19" s="34">
+      <c r="N19" s="42">
         <v>180000</v>
       </c>
-      <c r="P19" s="34">
+      <c r="O19" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="21" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="36">
         <v>24</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="37">
         <v>550000</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="37">
         <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
-      <c r="K20" s="21">
+      <c r="J20" s="36">
         <v>12</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="K20" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="L20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="33">
+      <c r="M20" s="41">
         <v>12</v>
       </c>
-      <c r="O20" s="34">
+      <c r="N20" s="42">
         <v>180000</v>
       </c>
-      <c r="P20" s="34">
+      <c r="O20" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="21" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="36">
         <v>12</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H21" s="37">
         <v>455000</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="37">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="K21" s="21">
+      <c r="J21" s="36">
         <v>13</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="M21" s="33" t="s">
+      <c r="L21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="N21" s="33">
+      <c r="M21" s="41">
         <v>12</v>
       </c>
-      <c r="O21" s="34">
+      <c r="N21" s="42">
         <v>180000</v>
       </c>
-      <c r="P21" s="34">
+      <c r="O21" s="42">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="23" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="45">
         <v>24</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="46">
         <v>455000</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="46">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K22" s="38">
+      <c r="J22" s="47">
         <v>14</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="K22" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="L22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="N22" s="39">
+      <c r="M22" s="48">
         <v>12</v>
       </c>
-      <c r="O22" s="40">
+      <c r="N22" s="49">
         <v>180000</v>
       </c>
-      <c r="P22" s="40">
+      <c r="O22" s="49">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="29">
         <v>650</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="30">
         <v>44057</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="31">
         <v>24</v>
       </c>
-      <c r="H23" s="20">
+      <c r="H23" s="32">
         <v>455000</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="32">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="47" t="s">
+      <c r="J23" s="50"/>
+      <c r="K23" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="47"/>
-      <c r="N23" s="42">
-        <f>SUM(N9:N22)</f>
+      <c r="L23" s="51"/>
+      <c r="M23" s="52">
+        <f>SUM(M9:M22)</f>
         <v>168</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43">
-        <f>SUM(P9:P22)</f>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53">
+        <f>SUM(O9:O22)</f>
         <v>30240000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="21" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="36">
         <v>24</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="37">
         <v>465000</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="37">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="21" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="36">
         <v>24</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="37">
         <v>475000</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="37">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="21" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="36">
         <v>72</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="37">
         <v>485000</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="37">
         <f t="shared" si="0"/>
         <v>34920000</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="21" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="36">
         <v>36</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="37">
         <v>455000</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="37">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="23" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="45">
         <v>36</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="46">
         <v>455000</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="46">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="44" t="s">
+    <row r="29" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="26">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57">
         <f>SUM(I7:I28)</f>
         <v>290820000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-    </row>
-    <row r="31" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="1:16" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-    </row>
-    <row r="33" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-    </row>
-    <row r="34" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-    </row>
-    <row r="35" spans="1:10" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-    </row>
-    <row r="36" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="27" t="s">
+    <row r="30" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
+    </row>
+    <row r="31" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
+    </row>
+    <row r="32" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="59"/>
+    </row>
+    <row r="33" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="59"/>
+    </row>
+    <row r="35" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>23</v>
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="27"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="55" t="s">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="70"/>
+      <c r="D43" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="28">
-        <f>300000000+300000000*38%</f>
-        <v>414000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="29">
-        <f>I29</f>
-        <v>290820000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="32">
-        <f>J38-J39</f>
-        <v>123180000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="27" t="s">
+      <c r="E43" s="71"/>
+      <c r="F43" s="72" t="e">
+        <f>300000000-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="71"/>
+      <c r="F44" s="72">
+        <v>30240000</v>
+      </c>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+    </row>
+    <row r="45" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="73" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75">
-        <v>300000000</v>
-      </c>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75">
-        <v>30240000</v>
-      </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-    </row>
-    <row r="45" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="75">
         <v>100000000</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88">
+      <c r="E45" s="75"/>
+      <c r="F45" s="76">
         <f>SUM(D45:E47)</f>
         <v>200000000</v>
       </c>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="86"/>
-      <c r="C46" s="79">
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="73"/>
+      <c r="C46" s="74">
         <v>44064</v>
       </c>
-      <c r="D46" s="87">
+      <c r="D46" s="75">
         <v>80000000</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="86"/>
-      <c r="C47" s="79">
+      <c r="E46" s="75"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="73"/>
+      <c r="C47" s="74">
         <v>44065</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="75">
         <v>20000000</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="68" t="s">
+      <c r="E47" s="75"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="67">
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="78" t="e">
         <f>F43+F44-F45</f>
-        <v>130240000</v>
-      </c>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B51" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="83">
-        <f>P23</f>
-        <v>30240000</v>
-      </c>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="82"/>
-    </row>
+        <v>#REF!</v>
+      </c>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+    </row>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:H47"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+  <mergeCells count="39">
+    <mergeCell ref="K5:O6"/>
     <mergeCell ref="A7:A15"/>
     <mergeCell ref="B39:I39"/>
     <mergeCell ref="B38:I38"/>
@@ -2224,8 +2172,31 @@
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="B23:B28"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F45:H47"/>
   </mergeCells>
-  <pageMargins left="0.71" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>

--- a/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
+++ b/KẾ TOÁN - THÁI HẰNG/CÔNG NỢ/3S-Tử Du/3S-Tử Du.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nhập hàng" sheetId="1" r:id="rId1"/>
-    <sheet name="Ghi chú" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Ghi chú" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>CÔNG TY CỔ PHẦN ĐT &amp; PT NANO MILK</t>
   </si>
@@ -91,9 +92,6 @@
     <t>1CX45</t>
   </si>
   <si>
-    <t>Như vậy:</t>
-  </si>
-  <si>
     <t>Số hàng đã chuyển cho đại lý</t>
   </si>
   <si>
@@ -209,6 +207,12 @@
   </si>
   <si>
     <t>Số Hàng Nanomilk nhập (300.000.000-30.240.000)+(300.000.000-30.240.000)*38%</t>
+  </si>
+  <si>
+    <t>Miên nợ công ty 20tr</t>
+  </si>
+  <si>
+    <t>Miên đang nợ công ty 20trieeu</t>
   </si>
 </sst>
 </file>
@@ -294,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -403,117 +407,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -532,6 +425,43 @@
       </right>
       <top/>
       <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -541,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -572,33 +502,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -621,39 +524,21 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -664,77 +549,110 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,23 +935,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O6"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="43" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="7" style="4" customWidth="1"/>
     <col min="7" max="7" width="4.140625" style="4" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="33.28515625" style="4" customWidth="1"/>
     <col min="12" max="12" width="4.28515625" style="4" customWidth="1"/>
@@ -1067,1099 +985,974 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" s="22" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:15" s="13" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-    </row>
-    <row r="6" spans="1:15" s="22" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="K5" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+    </row>
+    <row r="6" spans="1:15" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="50">
         <v>641</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="55">
         <v>44055</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="20">
         <v>48</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="21">
         <v>225000</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="21">
         <f>G7*H7</f>
         <v>10800000</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="36" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="23">
         <v>36</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="24">
         <v>455000</v>
       </c>
-      <c r="I8" s="37">
-        <f t="shared" ref="I8:I28" si="0">G8*H8</f>
+      <c r="I8" s="24">
+        <f t="shared" ref="I8:I32" si="0">G8*H8</f>
         <v>16380000</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="21" t="s">
+      <c r="J8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="N8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="O8" s="21" t="s">
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="23">
+        <v>36</v>
+      </c>
+      <c r="H9" s="24">
+        <v>465000</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="0"/>
+        <v>16740000</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="36">
-        <v>36</v>
-      </c>
-      <c r="H9" s="37">
-        <v>465000</v>
-      </c>
-      <c r="I9" s="37">
-        <f t="shared" si="0"/>
-        <v>16740000</v>
-      </c>
-      <c r="J9" s="38">
-        <v>1</v>
-      </c>
-      <c r="K9" s="79" t="s">
+      <c r="L9" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="39">
-        <v>12</v>
-      </c>
-      <c r="N9" s="40">
+      <c r="M9" s="26">
+        <v>12</v>
+      </c>
+      <c r="N9" s="27">
         <v>180000</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="27">
         <f>M9*N9</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="23">
         <v>24</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="24">
         <v>475000</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="24">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="23">
         <v>2</v>
       </c>
-      <c r="K10" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="41" t="s">
+      <c r="K10" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="41">
-        <v>12</v>
-      </c>
-      <c r="N10" s="42">
+      <c r="L10" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="28">
+        <v>12</v>
+      </c>
+      <c r="N10" s="29">
         <v>180000</v>
       </c>
-      <c r="O10" s="42">
+      <c r="O10" s="29">
         <f t="shared" ref="O10:O22" si="1">M10*N10</f>
         <v>2160000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="36" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="36">
-        <v>12</v>
-      </c>
-      <c r="H11" s="37">
+      <c r="G11" s="23">
+        <v>12</v>
+      </c>
+      <c r="H11" s="24">
         <v>485000</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="24">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="23">
         <v>3</v>
       </c>
-      <c r="K11" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="41">
-        <v>12</v>
-      </c>
-      <c r="N11" s="42">
+      <c r="K11" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="28">
+        <v>12</v>
+      </c>
+      <c r="N11" s="29">
         <v>180000</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="36" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="36">
-        <v>12</v>
-      </c>
-      <c r="H12" s="37">
+      <c r="G12" s="23">
+        <v>12</v>
+      </c>
+      <c r="H12" s="24">
         <v>485000</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="24">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="23">
         <v>4</v>
       </c>
-      <c r="K12" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="41">
-        <v>12</v>
-      </c>
-      <c r="N12" s="42">
+      <c r="K12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="28">
+        <v>12</v>
+      </c>
+      <c r="N12" s="29">
         <v>180000</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="36" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="23">
         <v>48</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="24">
         <v>550000</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="24">
         <f t="shared" si="0"/>
         <v>26400000</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="23">
         <v>5</v>
       </c>
-      <c r="K13" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="41">
-        <v>12</v>
-      </c>
-      <c r="N13" s="42">
+      <c r="K13" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="28">
+        <v>12</v>
+      </c>
+      <c r="N13" s="29">
         <v>180000</v>
       </c>
-      <c r="O13" s="42">
+      <c r="O13" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="36" t="s">
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="36">
-        <v>12</v>
-      </c>
-      <c r="H14" s="37">
+      <c r="G14" s="23">
+        <v>12</v>
+      </c>
+      <c r="H14" s="24">
         <v>455000</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="24">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="23">
         <v>6</v>
       </c>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="41">
-        <v>12</v>
-      </c>
-      <c r="N14" s="42">
+      <c r="M14" s="28">
+        <v>12</v>
+      </c>
+      <c r="N14" s="29">
         <v>180000</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="23">
         <v>24</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="24">
         <v>455000</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="24">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="23">
         <v>7</v>
       </c>
-      <c r="K15" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="41">
-        <v>12</v>
-      </c>
-      <c r="N15" s="42">
+      <c r="K15" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="28">
+        <v>12</v>
+      </c>
+      <c r="N15" s="29">
         <v>180000</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="51">
         <v>645</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="53">
         <v>44056</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="23">
         <v>36</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="24">
         <v>455000</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="24">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="23">
         <v>8</v>
       </c>
-      <c r="K16" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="41">
-        <v>12</v>
-      </c>
-      <c r="N16" s="42">
+      <c r="K16" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="28">
+        <v>12</v>
+      </c>
+      <c r="N16" s="29">
         <v>180000</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="36" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="23">
         <v>36</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="24">
         <v>465000</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="24">
         <f t="shared" si="0"/>
         <v>16740000</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="23">
         <v>9</v>
       </c>
-      <c r="K17" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="41">
-        <v>12</v>
-      </c>
-      <c r="N17" s="42">
+      <c r="K17" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="28">
+        <v>12</v>
+      </c>
+      <c r="N17" s="29">
         <v>180000</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="36" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="23">
         <v>24</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="24">
         <v>475000</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="24">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="23">
         <v>10</v>
       </c>
-      <c r="K18" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="41" t="s">
+      <c r="K18" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="41">
-        <v>12</v>
-      </c>
-      <c r="N18" s="42">
+      <c r="L18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="28">
+        <v>12</v>
+      </c>
+      <c r="N18" s="29">
         <v>180000</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="36" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="36">
-        <v>12</v>
-      </c>
-      <c r="H19" s="37">
+      <c r="G19" s="23">
+        <v>12</v>
+      </c>
+      <c r="H19" s="24">
         <v>485000</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="24">
         <f t="shared" si="0"/>
         <v>5820000</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="23">
         <v>11</v>
       </c>
-      <c r="K19" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="41">
-        <v>12</v>
-      </c>
-      <c r="N19" s="42">
+      <c r="K19" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" s="28">
+        <v>12</v>
+      </c>
+      <c r="N19" s="29">
         <v>180000</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="36" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="23">
         <v>24</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="24">
         <v>550000</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="24">
         <f t="shared" si="0"/>
         <v>13200000</v>
       </c>
-      <c r="J20" s="36">
-        <v>12</v>
-      </c>
-      <c r="K20" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="41">
-        <v>12</v>
-      </c>
-      <c r="N20" s="42">
+      <c r="J20" s="23">
+        <v>12</v>
+      </c>
+      <c r="K20" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="28">
+        <v>12</v>
+      </c>
+      <c r="N20" s="29">
         <v>180000</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="36" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="36">
-        <v>12</v>
-      </c>
-      <c r="H21" s="37">
+      <c r="G21" s="23">
+        <v>12</v>
+      </c>
+      <c r="H21" s="24">
         <v>455000</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="24">
         <f t="shared" si="0"/>
         <v>5460000</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="23">
         <v>13</v>
       </c>
-      <c r="K21" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="41">
-        <v>12</v>
-      </c>
-      <c r="N21" s="42">
+      <c r="K21" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="28">
+        <v>12</v>
+      </c>
+      <c r="N21" s="29">
         <v>180000</v>
       </c>
-      <c r="O21" s="42">
+      <c r="O21" s="29">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="45">
+      <c r="A22" s="52"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="30">
         <v>24</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="31">
         <v>455000</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="31">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="32">
         <v>14</v>
       </c>
-      <c r="K22" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="48">
-        <v>12</v>
-      </c>
-      <c r="N22" s="49">
+      <c r="K22" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="33">
+        <v>12</v>
+      </c>
+      <c r="N22" s="34">
         <v>180000</v>
       </c>
-      <c r="O22" s="49">
+      <c r="O22" s="34">
         <f t="shared" si="1"/>
         <v>2160000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="50">
         <v>650</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="55">
         <v>44057</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="31" t="s">
+      <c r="F23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="20">
         <v>24</v>
       </c>
-      <c r="H23" s="32">
+      <c r="H23" s="21">
         <v>455000</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="21">
         <f t="shared" si="0"/>
         <v>10920000</v>
       </c>
-      <c r="J23" s="50"/>
-      <c r="K23" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="51"/>
-      <c r="M23" s="52">
+      <c r="J23" s="35"/>
+      <c r="K23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37">
         <f>SUM(M9:M22)</f>
         <v>168</v>
       </c>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53">
+      <c r="N23" s="38"/>
+      <c r="O23" s="38">
         <f>SUM(O9:O22)</f>
         <v>30240000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="36" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="23">
         <v>24</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="24">
         <v>465000</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="24">
         <f t="shared" si="0"/>
         <v>11160000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="36" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="23">
         <v>24</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="24">
         <v>475000</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="24">
         <f t="shared" si="0"/>
         <v>11400000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="36" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="23">
         <v>72</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="24">
         <v>485000</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="24">
         <f t="shared" si="0"/>
         <v>34920000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="36" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="23">
         <v>36</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="24">
         <v>455000</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="24">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="45">
+      <c r="A28" s="52"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="30">
         <v>36</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="31">
         <v>455000</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="31">
         <f t="shared" si="0"/>
         <v>16380000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57">
-        <f>SUM(I7:I28)</f>
-        <v>290820000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-    </row>
-    <row r="31" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
-    </row>
-    <row r="32" spans="1:15" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="59"/>
-    </row>
-    <row r="33" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
-    </row>
-    <row r="34" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="59"/>
-    </row>
-    <row r="35" spans="1:9" s="23" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="59"/>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-    </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-    </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="64" t="s">
+    <row r="29" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>780</v>
+      </c>
+      <c r="B29" s="80">
+        <v>44065</v>
+      </c>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="20">
+        <v>72</v>
+      </c>
+      <c r="H29" s="21">
+        <v>455000</v>
+      </c>
+      <c r="I29" s="21">
+        <f t="shared" si="0"/>
+        <v>32760000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="23">
+        <v>36</v>
+      </c>
+      <c r="H30" s="24">
+        <v>465000</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="0"/>
+        <v>16740000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="79"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="23">
         <v>24</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-    </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-    </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="72" t="e">
-        <f>300000000-#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="71"/>
-      <c r="F44" s="72">
-        <v>30240000</v>
-      </c>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" spans="1:9" ht="43.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="75">
-        <v>100000000</v>
-      </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="76">
-        <f>SUM(D45:E47)</f>
-        <v>200000000</v>
-      </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-    </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="73"/>
-      <c r="C46" s="74">
-        <v>44064</v>
-      </c>
-      <c r="D46" s="75">
-        <v>80000000</v>
-      </c>
-      <c r="E46" s="75"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="73"/>
-      <c r="C47" s="74">
-        <v>44065</v>
-      </c>
-      <c r="D47" s="75">
-        <v>20000000</v>
-      </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="78" t="e">
-        <f>F43+F44-F45</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78"/>
-    </row>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="H31" s="24">
+        <v>475000</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="0"/>
+        <v>11400000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="23">
+        <v>36</v>
+      </c>
+      <c r="H32" s="24">
+        <v>485000</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="0"/>
+        <v>17460000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42">
+        <f>SUM(I7:I32)</f>
+        <v>369180000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="23">
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C7:C15"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="K5:O6"/>
     <mergeCell ref="A7:A15"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B38:I38"/>
     <mergeCell ref="A23:A28"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="A16:A22"/>
@@ -2172,29 +1965,6 @@
     <mergeCell ref="D23:D28"/>
     <mergeCell ref="C23:C28"/>
     <mergeCell ref="B23:B28"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="C7:C15"/>
-    <mergeCell ref="B7:B15"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:H47"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
@@ -2203,37 +1973,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:D11"/>
+  <dimension ref="A7:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="68">
+        <f>'Nhập hàng'!O23</f>
+        <v>30240000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="68">
+        <f>300000000-B7+(300000000-B7)*38%</f>
+        <v>372268800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="68">
+        <f>'Nhập hàng'!I33</f>
+        <v>369180000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="68">
+        <f>B8-B9</f>
+        <v>3088800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="74">
+        <f>300000000-D14</f>
+        <v>269760000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="74">
+        <f>B7</f>
+        <v>30240000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="68">
+        <v>100000000</v>
+      </c>
+      <c r="D15" s="75">
+        <f>SUM(C15:C17)</f>
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="65"/>
+      <c r="B16" s="44">
+        <v>44064</v>
+      </c>
+      <c r="C16" s="68">
+        <v>80000000</v>
+      </c>
+      <c r="D16" s="76"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="44">
+        <v>44065</v>
+      </c>
+      <c r="C17" s="68">
+        <v>20000000</v>
+      </c>
+      <c r="D17" s="77"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="69">
+        <f>D13+D14-D15</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D15:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
